--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H2">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I2">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J2">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.289405354998</v>
+        <v>16.6124065</v>
       </c>
       <c r="N2">
-        <v>16.289405354998</v>
+        <v>33.224813</v>
       </c>
       <c r="O2">
-        <v>0.4786619061363191</v>
+        <v>0.4620374562419557</v>
       </c>
       <c r="P2">
-        <v>0.4786619061363191</v>
+        <v>0.3753617403199084</v>
       </c>
       <c r="Q2">
-        <v>0.5796510069571116</v>
+        <v>0.8634630526504998</v>
       </c>
       <c r="R2">
-        <v>0.5796510069571116</v>
+        <v>3.453852210601999</v>
       </c>
       <c r="S2">
-        <v>0.0455476164800034</v>
+        <v>0.04027644584150451</v>
       </c>
       <c r="T2">
-        <v>0.0455476164800034</v>
+        <v>0.02351562964799541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H3">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I3">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J3">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.02349543653331</v>
+        <v>4.247254666666667</v>
       </c>
       <c r="N3">
-        <v>4.02349543653331</v>
+        <v>12.741764</v>
       </c>
       <c r="O3">
-        <v>0.1182298526564018</v>
+        <v>0.1181280233058613</v>
       </c>
       <c r="P3">
-        <v>0.1182298526564018</v>
+        <v>0.1439517721224062</v>
       </c>
       <c r="Q3">
-        <v>0.1431742369010598</v>
+        <v>0.2207595558093333</v>
       </c>
       <c r="R3">
-        <v>0.1431742369010598</v>
+        <v>1.324557334856</v>
       </c>
       <c r="S3">
-        <v>0.01125029570192592</v>
+        <v>0.01029738361850689</v>
       </c>
       <c r="T3">
-        <v>0.01125029570192592</v>
+        <v>0.009018278094933465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H4">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I4">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J4">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>11.0080357256091</v>
+        <v>0.3122576666666667</v>
       </c>
       <c r="N4">
-        <v>11.0080357256091</v>
+        <v>0.936773</v>
       </c>
       <c r="O4">
-        <v>0.3234695956301468</v>
+        <v>0.008684758466433819</v>
       </c>
       <c r="P4">
-        <v>0.3234695956301468</v>
+        <v>0.01058331746110058</v>
       </c>
       <c r="Q4">
-        <v>0.3917158947125947</v>
+        <v>0.01623021674033333</v>
       </c>
       <c r="R4">
-        <v>0.3917158947125947</v>
+        <v>0.09738130044199998</v>
       </c>
       <c r="S4">
-        <v>0.03078011618603255</v>
+        <v>0.0007570624400561454</v>
       </c>
       <c r="T4">
-        <v>0.03078011618603255</v>
+        <v>0.0006630227514671521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H5">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I5">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J5">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.71019306758762</v>
+        <v>0.1266366666666666</v>
       </c>
       <c r="N5">
-        <v>2.71019306758762</v>
+        <v>0.37991</v>
       </c>
       <c r="O5">
-        <v>0.07963864557713239</v>
+        <v>0.003522119647964738</v>
       </c>
       <c r="P5">
-        <v>0.07963864557713239</v>
+        <v>0.004292083713606948</v>
       </c>
       <c r="Q5">
-        <v>0.09644097537258074</v>
+        <v>0.006582194023333331</v>
       </c>
       <c r="R5">
-        <v>0.09644097537258074</v>
+        <v>0.03949316413999999</v>
       </c>
       <c r="S5">
-        <v>0.007578105629949806</v>
+        <v>0.0003070280543970953</v>
       </c>
       <c r="T5">
-        <v>0.007578105629949806</v>
+        <v>0.0002688900870433774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.21574445352571</v>
+        <v>0.051977</v>
       </c>
       <c r="H6">
-        <v>0.21574445352571</v>
+        <v>0.103954</v>
       </c>
       <c r="I6">
-        <v>0.5769192957447823</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J6">
-        <v>0.5769192957447823</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.289405354998</v>
+        <v>11.91861833333333</v>
       </c>
       <c r="N6">
-        <v>16.289405354998</v>
+        <v>35.755855</v>
       </c>
       <c r="O6">
-        <v>0.4786619061363191</v>
+        <v>0.3314900882453166</v>
       </c>
       <c r="P6">
-        <v>0.4786619061363191</v>
+        <v>0.4039565236808496</v>
       </c>
       <c r="Q6">
-        <v>3.514348856572818</v>
+        <v>0.6194940251116666</v>
       </c>
       <c r="R6">
-        <v>3.514348856572818</v>
+        <v>3.71696415067</v>
       </c>
       <c r="S6">
-        <v>0.2761492897880203</v>
+        <v>0.02889645072242018</v>
       </c>
       <c r="T6">
-        <v>0.2761492897880203</v>
+        <v>0.02530703314800974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.21574445352571</v>
+        <v>0.051977</v>
       </c>
       <c r="H7">
-        <v>0.21574445352571</v>
+        <v>0.103954</v>
       </c>
       <c r="I7">
-        <v>0.5769192957447823</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J7">
-        <v>0.5769192957447823</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.02349543653331</v>
+        <v>2.737501</v>
       </c>
       <c r="N7">
-        <v>4.02349543653331</v>
+        <v>5.475002</v>
       </c>
       <c r="O7">
-        <v>0.1182298526564018</v>
+        <v>0.07613755409246759</v>
       </c>
       <c r="P7">
-        <v>0.1182298526564018</v>
+        <v>0.06185456270212806</v>
       </c>
       <c r="Q7">
-        <v>0.8680468242180671</v>
+        <v>0.142287089477</v>
       </c>
       <c r="R7">
-        <v>0.8680468242180671</v>
+        <v>0.5691483579079999</v>
       </c>
       <c r="S7">
-        <v>0.0682090833305407</v>
+        <v>0.006637016182307148</v>
       </c>
       <c r="T7">
-        <v>0.0682090833305407</v>
+        <v>0.003875059262305981</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H8">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I8">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J8">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0080357256091</v>
+        <v>16.6124065</v>
       </c>
       <c r="N8">
-        <v>11.0080357256091</v>
+        <v>33.224813</v>
       </c>
       <c r="O8">
-        <v>0.3234695956301468</v>
+        <v>0.4620374562419557</v>
       </c>
       <c r="P8">
-        <v>0.3234695956301468</v>
+        <v>0.3753617403199084</v>
       </c>
       <c r="Q8">
-        <v>2.374922652013028</v>
+        <v>5.238932813590666</v>
       </c>
       <c r="R8">
-        <v>2.374922652013028</v>
+        <v>31.433596881544</v>
       </c>
       <c r="S8">
-        <v>0.1866158513057938</v>
+        <v>0.2443713058551367</v>
       </c>
       <c r="T8">
-        <v>0.1866158513057938</v>
+        <v>0.2140163439830375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,320 +962,320 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H9">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I9">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J9">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.71019306758762</v>
+        <v>4.247254666666667</v>
       </c>
       <c r="N9">
-        <v>2.71019306758762</v>
+        <v>12.741764</v>
       </c>
       <c r="O9">
-        <v>0.07963864557713239</v>
+        <v>0.1181280233058613</v>
       </c>
       <c r="P9">
-        <v>0.07963864557713239</v>
+        <v>0.1439517721224062</v>
       </c>
       <c r="Q9">
-        <v>0.5847091223158587</v>
+        <v>1.339425557692445</v>
       </c>
       <c r="R9">
-        <v>0.5847091223158587</v>
+        <v>12.054830019232</v>
       </c>
       <c r="S9">
-        <v>0.04594507132042754</v>
+        <v>0.06247783361144316</v>
       </c>
       <c r="T9">
-        <v>0.04594507132042754</v>
+        <v>0.08207557848932617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H10">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I10">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J10">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>16.289405354998</v>
+        <v>0.3122576666666667</v>
       </c>
       <c r="N10">
-        <v>16.289405354998</v>
+        <v>0.936773</v>
       </c>
       <c r="O10">
-        <v>0.4786619061363191</v>
+        <v>0.008684758466433819</v>
       </c>
       <c r="P10">
-        <v>0.4786619061363191</v>
+        <v>0.01058331746110058</v>
       </c>
       <c r="Q10">
-        <v>1.004956352621989</v>
+        <v>0.09847441044711111</v>
       </c>
       <c r="R10">
-        <v>1.004956352621989</v>
+        <v>0.886269694024</v>
       </c>
       <c r="S10">
-        <v>0.07896711293344859</v>
+        <v>0.004593363024593176</v>
       </c>
       <c r="T10">
-        <v>0.07896711293344859</v>
+        <v>0.006034186937395917</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H11">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I11">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J11">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.02349543653331</v>
+        <v>0.1266366666666666</v>
       </c>
       <c r="N11">
-        <v>4.02349543653331</v>
+        <v>0.37991</v>
       </c>
       <c r="O11">
-        <v>0.1182298526564018</v>
+        <v>0.003522119647964738</v>
       </c>
       <c r="P11">
-        <v>0.1182298526564018</v>
+        <v>0.004292083713606948</v>
       </c>
       <c r="Q11">
-        <v>0.2482249787865403</v>
+        <v>0.03993647689777777</v>
       </c>
       <c r="R11">
-        <v>0.2482249787865403</v>
+        <v>0.35942829208</v>
       </c>
       <c r="S11">
-        <v>0.01950493658913432</v>
+        <v>0.001862846758684541</v>
       </c>
       <c r="T11">
-        <v>0.01950493658913432</v>
+        <v>0.002447175526393355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H12">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I12">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J12">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0080357256091</v>
+        <v>11.91861833333333</v>
       </c>
       <c r="N12">
-        <v>11.0080357256091</v>
+        <v>35.755855</v>
       </c>
       <c r="O12">
-        <v>0.3234695956301468</v>
+        <v>0.3314900882453166</v>
       </c>
       <c r="P12">
-        <v>0.3234695956301468</v>
+        <v>0.4039565236808496</v>
       </c>
       <c r="Q12">
-        <v>0.6791282549148665</v>
+        <v>3.758687260582222</v>
       </c>
       <c r="R12">
-        <v>0.6791282549148665</v>
+        <v>33.82818534524</v>
       </c>
       <c r="S12">
-        <v>0.05336430528772469</v>
+        <v>0.1753248890283078</v>
       </c>
       <c r="T12">
-        <v>0.05336430528772469</v>
+        <v>0.2303199528342752</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0616938636322684</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H13">
-        <v>0.0616938636322684</v>
+        <v>0.946088</v>
       </c>
       <c r="I13">
-        <v>0.1649747178981888</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J13">
-        <v>0.1649747178981888</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.71019306758762</v>
+        <v>2.737501</v>
       </c>
       <c r="N13">
-        <v>2.71019306758762</v>
+        <v>5.475002</v>
       </c>
       <c r="O13">
-        <v>0.07963864557713239</v>
+        <v>0.07613755409246759</v>
       </c>
       <c r="P13">
-        <v>0.07963864557713239</v>
+        <v>0.06185456270212806</v>
       </c>
       <c r="Q13">
-        <v>0.1672022815288698</v>
+        <v>0.8633056153626667</v>
       </c>
       <c r="R13">
-        <v>0.1672022815288698</v>
+        <v>5.179833692176</v>
       </c>
       <c r="S13">
-        <v>0.01313836308788126</v>
+        <v>0.04026910214060454</v>
       </c>
       <c r="T13">
-        <v>0.01313836308788126</v>
+        <v>0.03526701298032343</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1278,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H14">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I14">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J14">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.289405354998</v>
+        <v>16.6124065</v>
       </c>
       <c r="N14">
-        <v>16.289405354998</v>
+        <v>33.224813</v>
       </c>
       <c r="O14">
-        <v>0.4786619061363191</v>
+        <v>0.4620374562419557</v>
       </c>
       <c r="P14">
-        <v>0.4786619061363191</v>
+        <v>0.3753617403199084</v>
       </c>
       <c r="Q14">
-        <v>0.9926217263676114</v>
+        <v>0.2359017097688333</v>
       </c>
       <c r="R14">
-        <v>0.9926217263676114</v>
+        <v>1.415410258613</v>
       </c>
       <c r="S14">
-        <v>0.07799788693484673</v>
+        <v>0.01100369310332092</v>
       </c>
       <c r="T14">
-        <v>0.07799788693484673</v>
+        <v>0.009636852248439239</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1340,60 +1346,60 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H15">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I15">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J15">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.02349543653331</v>
+        <v>4.247254666666667</v>
       </c>
       <c r="N15">
-        <v>4.02349543653331</v>
+        <v>12.741764</v>
       </c>
       <c r="O15">
-        <v>0.1182298526564018</v>
+        <v>0.1181280233058613</v>
       </c>
       <c r="P15">
-        <v>0.1182298526564018</v>
+        <v>0.1439517721224062</v>
       </c>
       <c r="Q15">
-        <v>0.2451783167774445</v>
+        <v>0.06031243201822222</v>
       </c>
       <c r="R15">
-        <v>0.2451783167774445</v>
+        <v>0.5428118881639999</v>
       </c>
       <c r="S15">
-        <v>0.01926553703480083</v>
+        <v>0.002813288182157569</v>
       </c>
       <c r="T15">
-        <v>0.01926553703480083</v>
+        <v>0.003695746821885263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1402,60 +1408,60 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H16">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I16">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J16">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>11.0080357256091</v>
+        <v>0.3122576666666667</v>
       </c>
       <c r="N16">
-        <v>11.0080357256091</v>
+        <v>0.936773</v>
       </c>
       <c r="O16">
-        <v>0.3234695956301468</v>
+        <v>0.008684758466433819</v>
       </c>
       <c r="P16">
-        <v>0.3234695956301468</v>
+        <v>0.01058331746110058</v>
       </c>
       <c r="Q16">
-        <v>0.670792775288008</v>
+        <v>0.004434162952555555</v>
       </c>
       <c r="R16">
-        <v>0.670792775288008</v>
+        <v>0.039907466573</v>
       </c>
       <c r="S16">
-        <v>0.0527093228505957</v>
+        <v>0.0002068326183301066</v>
       </c>
       <c r="T16">
-        <v>0.0527093228505957</v>
+        <v>0.0002717108743795539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1464,49 +1470,1289 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0609366459201686</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H17">
-        <v>0.0609366459201686</v>
+        <v>0.042601</v>
       </c>
       <c r="I17">
-        <v>0.162949852359117</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J17">
-        <v>0.162949852359117</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.71019306758762</v>
+        <v>0.1266366666666666</v>
       </c>
       <c r="N17">
-        <v>2.71019306758762</v>
+        <v>0.37991</v>
       </c>
       <c r="O17">
-        <v>0.07963864557713239</v>
+        <v>0.003522119647964738</v>
       </c>
       <c r="P17">
-        <v>0.07963864557713239</v>
+        <v>0.004292083713606948</v>
       </c>
       <c r="Q17">
-        <v>0.1651500753348824</v>
+        <v>0.001798282878888889</v>
       </c>
       <c r="R17">
-        <v>0.1651500753348824</v>
+        <v>0.01618454591</v>
       </c>
       <c r="S17">
-        <v>0.01297710553887377</v>
+        <v>8.388134588613334E-05</v>
       </c>
       <c r="T17">
-        <v>0.01297710553887377</v>
+        <v>0.0001101928410463755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01420033333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.042601</v>
+      </c>
+      <c r="I18">
+        <v>0.02381558671199722</v>
+      </c>
+      <c r="J18">
+        <v>0.0256735069488597</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.91861833333333</v>
+      </c>
+      <c r="N18">
+        <v>35.755855</v>
+      </c>
+      <c r="O18">
+        <v>0.3314900882453166</v>
+      </c>
+      <c r="P18">
+        <v>0.4039565236808496</v>
+      </c>
+      <c r="Q18">
+        <v>0.1692483532061111</v>
+      </c>
+      <c r="R18">
+        <v>1.523235178855</v>
+      </c>
+      <c r="S18">
+        <v>0.007894630940773948</v>
+      </c>
+      <c r="T18">
+        <v>0.0103709806177575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01420033333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.042601</v>
+      </c>
+      <c r="I19">
+        <v>0.02381558671199722</v>
+      </c>
+      <c r="J19">
+        <v>0.0256735069488597</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.737501</v>
+      </c>
+      <c r="N19">
+        <v>5.475002</v>
+      </c>
+      <c r="O19">
+        <v>0.07613755409246759</v>
+      </c>
+      <c r="P19">
+        <v>0.06185456270212806</v>
+      </c>
+      <c r="Q19">
+        <v>0.03887342670033334</v>
+      </c>
+      <c r="R19">
+        <v>0.233240560202</v>
+      </c>
+      <c r="S19">
+        <v>0.00181326052152854</v>
+      </c>
+      <c r="T19">
+        <v>0.001588023545351763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.073389</v>
+      </c>
+      <c r="H20">
+        <v>0.220167</v>
+      </c>
+      <c r="I20">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J20">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>16.6124065</v>
+      </c>
+      <c r="N20">
+        <v>33.224813</v>
+      </c>
+      <c r="O20">
+        <v>0.4620374562419557</v>
+      </c>
+      <c r="P20">
+        <v>0.3753617403199084</v>
+      </c>
+      <c r="Q20">
+        <v>1.2191679006285</v>
+      </c>
+      <c r="R20">
+        <v>7.315007403770999</v>
+      </c>
+      <c r="S20">
+        <v>0.05686838570641196</v>
+      </c>
+      <c r="T20">
+        <v>0.04980439071810806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.073389</v>
+      </c>
+      <c r="H21">
+        <v>0.220167</v>
+      </c>
+      <c r="I21">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J21">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.247254666666667</v>
+      </c>
+      <c r="N21">
+        <v>12.741764</v>
+      </c>
+      <c r="O21">
+        <v>0.1181280233058613</v>
+      </c>
+      <c r="P21">
+        <v>0.1439517721224062</v>
+      </c>
+      <c r="Q21">
+        <v>0.311701772732</v>
+      </c>
+      <c r="R21">
+        <v>2.805315954588</v>
+      </c>
+      <c r="S21">
+        <v>0.01453940562900133</v>
+      </c>
+      <c r="T21">
+        <v>0.01910005611450465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.073389</v>
+      </c>
+      <c r="H22">
+        <v>0.220167</v>
+      </c>
+      <c r="I22">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J22">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.3122576666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.936773</v>
+      </c>
+      <c r="O22">
+        <v>0.008684758466433819</v>
+      </c>
+      <c r="P22">
+        <v>0.01058331746110058</v>
+      </c>
+      <c r="Q22">
+        <v>0.022916277899</v>
+      </c>
+      <c r="R22">
+        <v>0.206246501091</v>
+      </c>
+      <c r="S22">
+        <v>0.001068935402452632</v>
+      </c>
+      <c r="T22">
+        <v>0.00140423389308991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.073389</v>
+      </c>
+      <c r="H23">
+        <v>0.220167</v>
+      </c>
+      <c r="I23">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J23">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1266366666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.37991</v>
+      </c>
+      <c r="O23">
+        <v>0.003522119647964738</v>
+      </c>
+      <c r="P23">
+        <v>0.004292083713606948</v>
+      </c>
+      <c r="Q23">
+        <v>0.009293738329999999</v>
+      </c>
+      <c r="R23">
+        <v>0.08364364497</v>
+      </c>
+      <c r="S23">
+        <v>0.0004335087035448069</v>
+      </c>
+      <c r="T23">
+        <v>0.0005694896184281438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.073389</v>
+      </c>
+      <c r="H24">
+        <v>0.220167</v>
+      </c>
+      <c r="I24">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J24">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.91861833333333</v>
+      </c>
+      <c r="N24">
+        <v>35.755855</v>
+      </c>
+      <c r="O24">
+        <v>0.3314900882453166</v>
+      </c>
+      <c r="P24">
+        <v>0.4039565236808496</v>
+      </c>
+      <c r="Q24">
+        <v>0.8746954808649999</v>
+      </c>
+      <c r="R24">
+        <v>7.872259327785</v>
+      </c>
+      <c r="S24">
+        <v>0.04080038521014478</v>
+      </c>
+      <c r="T24">
+        <v>0.05359845284546877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.073389</v>
+      </c>
+      <c r="H25">
+        <v>0.220167</v>
+      </c>
+      <c r="I25">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J25">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.737501</v>
+      </c>
+      <c r="N25">
+        <v>5.475002</v>
+      </c>
+      <c r="O25">
+        <v>0.07613755409246759</v>
+      </c>
+      <c r="P25">
+        <v>0.06185456270212806</v>
+      </c>
+      <c r="Q25">
+        <v>0.200902460889</v>
+      </c>
+      <c r="R25">
+        <v>1.205414765334</v>
+      </c>
+      <c r="S25">
+        <v>0.009371144556310277</v>
+      </c>
+      <c r="T25">
+        <v>0.008207093258596311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.191582</v>
+      </c>
+      <c r="I26">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J26">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>16.6124065</v>
+      </c>
+      <c r="N26">
+        <v>33.224813</v>
+      </c>
+      <c r="O26">
+        <v>0.4620374562419557</v>
+      </c>
+      <c r="P26">
+        <v>0.3753617403199084</v>
+      </c>
+      <c r="Q26">
+        <v>1.060879354027666</v>
+      </c>
+      <c r="R26">
+        <v>6.365276124166</v>
+      </c>
+      <c r="S26">
+        <v>0.04948497763245998</v>
+      </c>
+      <c r="T26">
+        <v>0.0433381241628245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.191582</v>
+      </c>
+      <c r="I27">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J27">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.247254666666667</v>
+      </c>
+      <c r="N27">
+        <v>12.741764</v>
+      </c>
+      <c r="O27">
+        <v>0.1181280233058613</v>
+      </c>
+      <c r="P27">
+        <v>0.1439517721224062</v>
+      </c>
+      <c r="Q27">
+        <v>0.2712325145164444</v>
+      </c>
+      <c r="R27">
+        <v>2.441092630648</v>
+      </c>
+      <c r="S27">
+        <v>0.01265170715509287</v>
+      </c>
+      <c r="T27">
+        <v>0.01662023350696985</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.191582</v>
+      </c>
+      <c r="I28">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J28">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.3122576666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.936773</v>
+      </c>
+      <c r="O28">
+        <v>0.008684758466433819</v>
+      </c>
+      <c r="P28">
+        <v>0.01058331746110058</v>
+      </c>
+      <c r="Q28">
+        <v>0.01994098276511111</v>
+      </c>
+      <c r="R28">
+        <v>0.179468844886</v>
+      </c>
+      <c r="S28">
+        <v>0.0009301520312884317</v>
+      </c>
+      <c r="T28">
+        <v>0.001221917624830021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.191582</v>
+      </c>
+      <c r="I29">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J29">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1266366666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.37991</v>
+      </c>
+      <c r="O29">
+        <v>0.003522119647964738</v>
+      </c>
+      <c r="P29">
+        <v>0.004292083713606948</v>
+      </c>
+      <c r="Q29">
+        <v>0.008087101957777777</v>
+      </c>
+      <c r="R29">
+        <v>0.07278391762</v>
+      </c>
+      <c r="S29">
+        <v>0.0003772248540540644</v>
+      </c>
+      <c r="T29">
+        <v>0.0004955509230615881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.191582</v>
+      </c>
+      <c r="I30">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J30">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.91861833333333</v>
+      </c>
+      <c r="N30">
+        <v>35.755855</v>
+      </c>
+      <c r="O30">
+        <v>0.3314900882453166</v>
+      </c>
+      <c r="P30">
+        <v>0.4039565236808496</v>
+      </c>
+      <c r="Q30">
+        <v>0.7611309125122222</v>
+      </c>
+      <c r="R30">
+        <v>6.850178212609999</v>
+      </c>
+      <c r="S30">
+        <v>0.03550313806941983</v>
+      </c>
+      <c r="T30">
+        <v>0.04663959082442237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.191582</v>
+      </c>
+      <c r="I31">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J31">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.737501</v>
+      </c>
+      <c r="N31">
+        <v>5.475002</v>
+      </c>
+      <c r="O31">
+        <v>0.07613755409246759</v>
+      </c>
+      <c r="P31">
+        <v>0.06185456270212806</v>
+      </c>
+      <c r="Q31">
+        <v>0.1748186388606666</v>
+      </c>
+      <c r="R31">
+        <v>1.048911833164</v>
+      </c>
+      <c r="S31">
+        <v>0.00815445828115492</v>
+      </c>
+      <c r="T31">
+        <v>0.007141539561643656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.0774725</v>
+      </c>
+      <c r="H32">
+        <v>0.154945</v>
+      </c>
+      <c r="I32">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J32">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>16.6124065</v>
+      </c>
+      <c r="N32">
+        <v>33.224813</v>
+      </c>
+      <c r="O32">
+        <v>0.4620374562419557</v>
+      </c>
+      <c r="P32">
+        <v>0.3753617403199084</v>
+      </c>
+      <c r="Q32">
+        <v>1.28700466257125</v>
+      </c>
+      <c r="R32">
+        <v>5.148018650285</v>
+      </c>
+      <c r="S32">
+        <v>0.06003264810312174</v>
+      </c>
+      <c r="T32">
+        <v>0.03505039955950372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.0774725</v>
+      </c>
+      <c r="H33">
+        <v>0.154945</v>
+      </c>
+      <c r="I33">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J33">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.247254666666667</v>
+      </c>
+      <c r="N33">
+        <v>12.741764</v>
+      </c>
+      <c r="O33">
+        <v>0.1181280233058613</v>
+      </c>
+      <c r="P33">
+        <v>0.1439517721224062</v>
+      </c>
+      <c r="Q33">
+        <v>0.3290454371633333</v>
+      </c>
+      <c r="R33">
+        <v>1.97427262298</v>
+      </c>
+      <c r="S33">
+        <v>0.01534840510965956</v>
+      </c>
+      <c r="T33">
+        <v>0.01344187909478679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.0774725</v>
+      </c>
+      <c r="H34">
+        <v>0.154945</v>
+      </c>
+      <c r="I34">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J34">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.3122576666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.936773</v>
+      </c>
+      <c r="O34">
+        <v>0.008684758466433819</v>
+      </c>
+      <c r="P34">
+        <v>0.01058331746110058</v>
+      </c>
+      <c r="Q34">
+        <v>0.02419138208083333</v>
+      </c>
+      <c r="R34">
+        <v>0.145148292485</v>
+      </c>
+      <c r="S34">
+        <v>0.00112841294971333</v>
+      </c>
+      <c r="T34">
+        <v>0.0009882453799380294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.0774725</v>
+      </c>
+      <c r="H35">
+        <v>0.154945</v>
+      </c>
+      <c r="I35">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J35">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.1266366666666666</v>
+      </c>
+      <c r="N35">
+        <v>0.37991</v>
+      </c>
+      <c r="O35">
+        <v>0.003522119647964738</v>
+      </c>
+      <c r="P35">
+        <v>0.004292083713606948</v>
+      </c>
+      <c r="Q35">
+        <v>0.009810859158333332</v>
+      </c>
+      <c r="R35">
+        <v>0.05886515495</v>
+      </c>
+      <c r="S35">
+        <v>0.0004576299313980985</v>
+      </c>
+      <c r="T35">
+        <v>0.0004007847176341085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.0774725</v>
+      </c>
+      <c r="H36">
+        <v>0.154945</v>
+      </c>
+      <c r="I36">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J36">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.91861833333333</v>
+      </c>
+      <c r="N36">
+        <v>35.755855</v>
+      </c>
+      <c r="O36">
+        <v>0.3314900882453166</v>
+      </c>
+      <c r="P36">
+        <v>0.4039565236808496</v>
+      </c>
+      <c r="Q36">
+        <v>0.9233651588291666</v>
+      </c>
+      <c r="R36">
+        <v>5.540190952974999</v>
+      </c>
+      <c r="S36">
+        <v>0.04307059427425011</v>
+      </c>
+      <c r="T36">
+        <v>0.03772051341091608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.0774725</v>
+      </c>
+      <c r="H37">
+        <v>0.154945</v>
+      </c>
+      <c r="I37">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J37">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.737501</v>
+      </c>
+      <c r="N37">
+        <v>5.475002</v>
+      </c>
+      <c r="O37">
+        <v>0.07613755409246759</v>
+      </c>
+      <c r="P37">
+        <v>0.06185456270212806</v>
+      </c>
+      <c r="Q37">
+        <v>0.2120810462225</v>
+      </c>
+      <c r="R37">
+        <v>0.8483241848899999</v>
+      </c>
+      <c r="S37">
+        <v>0.009892572410562182</v>
+      </c>
+      <c r="T37">
+        <v>0.005775834093906924</v>
       </c>
     </row>
   </sheetData>
